--- a/biology/Zoologie/Iranocichla_hormuzensis/Iranocichla_hormuzensis.xlsx
+++ b/biology/Zoologie/Iranocichla_hormuzensis/Iranocichla_hormuzensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iranocichla hormuzensis est une espèce de poissons, la seule du genre Iranocichla. Il se rencontre en Iran, dans la province d'Hormozgan. Cette espèce est un des très rares Cichlidae que l'on rencontre hors des continents africain et américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Maintenance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce à maintenir dans une eau légèrement saumâtre.
 </t>
@@ -542,7 +556,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Iranocichla est une espèce de poissons végétariens.
 </t>
@@ -573,7 +589,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Iranocichla hormuzensis est un incubateur buccal maternel, c'est donc la femelle qui garde et couve les œufs et larves dans sa bouche, pendant environ trois semaines.
 </t>
